--- a/datasets/rAI-beta.xlsx
+++ b/datasets/rAI-beta.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="router_examples" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="router_examples" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -199,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -402,237 +351,209 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>IMAGE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TEXT</t>
-        </is>
+      <c r="A1" t="str">
+        <v>IMAGE</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TEXT</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>buat poster kopi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>jelaskan algoritma sorting</t>
-        </is>
+      <c r="A2" t="str">
+        <v>buat poster kopi</v>
+      </c>
+      <c r="B2" t="str">
+        <v>jelaskan algoritma sorting</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>desain logo cafe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>apa itu database</t>
-        </is>
+      <c r="A3" t="str">
+        <v>desain logo cafe</v>
+      </c>
+      <c r="B3" t="str">
+        <v>apa itu database</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>gambar karakter anime</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>resep kopi susu</t>
-        </is>
+      <c r="A4" t="str">
+        <v>gambar karakter anime</v>
+      </c>
+      <c r="B4" t="str">
+        <v>resep kopi susu</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>buat banner promosi</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cara membuat kopi manual brew</t>
-        </is>
+      <c r="A5" t="str">
+        <v>buat banner promosi</v>
+      </c>
+      <c r="B5" t="str">
+        <v>cara membuat kopi manual brew</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>buat ilustrasi pemandangan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ceritakan sejarah kopi</t>
-        </is>
+      <c r="A6" t="str">
+        <v>buat ilustrasi pemandangan</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ceritakan sejarah kopi</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>create a coffee poster</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tuliskan kode python</t>
-        </is>
+      <c r="A7" t="str">
+        <v>create a coffee poster</v>
+      </c>
+      <c r="B7" t="str">
+        <v>tuliskan kode python</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>design a modern logo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>explain how sorting works</t>
-        </is>
+      <c r="A8" t="str">
+        <v>design a modern logo</v>
+      </c>
+      <c r="B8" t="str">
+        <v>explain how sorting works</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>generate an image of a cat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>what is machine learning</t>
-        </is>
+      <c r="A9" t="str">
+        <v>generate an image of a cat</v>
+      </c>
+      <c r="B9" t="str">
+        <v>what is machine learning</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>make a banner for promotion</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>how to make coffee at home</t>
-        </is>
+      <c r="A10" t="str">
+        <v>make a banner for promotion</v>
+      </c>
+      <c r="B10" t="str">
+        <v>how to make coffee at home</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>draw a fantasy landscape</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>write a python function</t>
-        </is>
+      <c r="A11" t="str">
+        <v>draw a fantasy landscape</v>
+      </c>
+      <c r="B11" t="str">
+        <v>write a python function</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>create a youtube thumbnail</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>give me a recipe</t>
-        </is>
+      <c r="A12" t="str">
+        <v>create a youtube thumbnail</v>
+      </c>
+      <c r="B12" t="str">
+        <v>give me a recipe</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>generate realistic photo</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>summarize this article</t>
-        </is>
+      <c r="A13" t="str">
+        <v>generate realistic photo</v>
+      </c>
+      <c r="B13" t="str">
+        <v>summarize this article</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>crear cartel café</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>tell me a short story</t>
-        </is>
+      <c r="A14" t="str">
+        <v>crear cartel café</v>
+      </c>
+      <c r="B14" t="str">
+        <v>tell me a short story</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>diseñar logotipo</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>translate this sentence</t>
-        </is>
+      <c r="A15" t="str">
+        <v>diseñar logotipo</v>
+      </c>
+      <c r="B15" t="str">
+        <v>translate this sentence</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ポスターを作る</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>qué es programación</t>
-        </is>
+      <c r="A16" t="str">
+        <v>ポスターを作る</v>
+      </c>
+      <c r="B16" t="str">
+        <v>qué es programación</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ロゴをデザインする</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>explica la base de datos</t>
-        </is>
+      <c r="A17" t="str">
+        <v>ロゴをデザインする</v>
+      </c>
+      <c r="B17" t="str">
+        <v>explica la base de datos</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>アルゴリズムを説明して</t>
-        </is>
+      <c r="A18" t="str">
+        <v>buatkan gambar</v>
+      </c>
+      <c r="B18" t="str">
+        <v>アルゴリズムを説明して</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B19"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/datasets/rAI-beta.xlsx
+++ b/datasets/rAI-beta.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="router_examples" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,209 +414,998 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>IMAGE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>TEXT</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>buat poster kopi</v>
-      </c>
-      <c r="B2" t="str">
-        <v>jelaskan algoritma sorting</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>create an image of a futuristic city</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>desain logo cafe</v>
-      </c>
-      <c r="B3" t="str">
-        <v>apa itu database</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>generate a picture of a cat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>gambar karakter anime</v>
-      </c>
-      <c r="B4" t="str">
-        <v>resep kopi susu</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>draw me a landscape</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>buat banner promosi</v>
-      </c>
-      <c r="B5" t="str">
-        <v>cara membuat kopi manual brew</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>make an image of a dog</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>buat ilustrasi pemandangan</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ceritakan sejarah kopi</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>illustrate a concept of peace</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>create a coffee poster</v>
-      </c>
-      <c r="B7" t="str">
-        <v>tuliskan kode python</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>photo of a sunset</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>design a modern logo</v>
-      </c>
-      <c r="B8" t="str">
-        <v>explain how sorting works</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>render a 3d model of a car</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>generate an image of a cat</v>
-      </c>
-      <c r="B9" t="str">
-        <v>what is machine learning</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>visualize this data as a chart</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>make a banner for promotion</v>
-      </c>
-      <c r="B10" t="str">
-        <v>how to make coffee at home</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>paint a portrait of a woman</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>draw a fantasy landscape</v>
-      </c>
-      <c r="B11" t="str">
-        <v>write a python function</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sketch a building</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>create a youtube thumbnail</v>
-      </c>
-      <c r="B12" t="str">
-        <v>give me a recipe</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>give me a picture of a flower</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>generate realistic photo</v>
-      </c>
-      <c r="B13" t="str">
-        <v>summarize this article</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>generate art</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>crear cartel café</v>
-      </c>
-      <c r="B14" t="str">
-        <v>tell me a short story</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>create a logo for my brand</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>diseñar logotipo</v>
-      </c>
-      <c r="B15" t="str">
-        <v>translate this sentence</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>show me an image of a bird</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>ポスターを作る</v>
-      </c>
-      <c r="B16" t="str">
-        <v>qué es programación</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I want a photo of a beach</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>ロゴをデザインする</v>
-      </c>
-      <c r="B17" t="str">
-        <v>explica la base de datos</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>buatkan gambar kota masa depan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>buatkan gambar</v>
-      </c>
-      <c r="B18" t="str">
-        <v>アルゴリズムを説明して</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>generate foto kucing</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="str">
-        <v/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>lukis pemandangan alam</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>buat gambar anjing</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ilustrasikan konsep perdamaian</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>foto matahari terbenam</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>render model 3d mobil</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>visualisasikan data ini sebagai grafik</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lukis potret wanita</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sketsa bangunan</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>berikan saya gambar bunga</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>buat seni digital</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>buat logo untuk brand saya</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>tampilkan gambar burung</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saya ingin foto pantai</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>crea una imagen de una ciudad futurista</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>genera una foto de un gato</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dibújame un paisaje</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>haz una imagen de un perro</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ilustra un concepto de paz</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>生成一张未来城市的图片</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>画一只猫</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>给我画一个风景</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>生成一张狗的图片</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>画一幅和平的插图</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>what is the weather today?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>tell me a joke</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>how to code in python</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>explain quantum physics</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>write a poem about love</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>who is the president of USA?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>translate this to spanish</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>summary of the news</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>best restaurants near me</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>how do I cook pasta?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>define artificial intelligence</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>solve this math problem</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>chat with me</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>what is your name?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>help me write an email</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>bagaimana cuaca hari ini?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ceritakan lelucon</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>bagaimana cara coding python</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>jelaskan fisika kuantum</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>tulis puisi tentang cinta</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>siapa presiden amerika?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>terjemahkan ini ke spanyol</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ringkasan berita</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>restoran terbaik di dekat saya</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>bagaimana cara memasak pasta?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>definisikan kecerdasan buatan</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>selesaikan masalah matematika ini</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mengobrol dengan saya</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>siapa namamu?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>bantu saya menulis email</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>¿qué tiempo hace hoy?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>cuéntame un chiste</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>cómo programar en python</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>explica la física cuántica</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>escribe un poema sobre el amor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>今天天气怎么样？</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>讲个笑话</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>如何用python编程</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>解释量子物理</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>写一首关于爱的诗</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B19"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>